--- a/Semester_3/Biology_Practicals/Observations/For_gen3_Oct29_Dark.xlsx
+++ b/Semester_3/Biology_Practicals/Observations/For_gen3_Oct29_Dark.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9570" windowHeight="8310" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8385" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="13">
   <si>
     <t>Vial 3 Gen 3</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>&lt; Nov 3, 2012 (food problemo)</t>
+  </si>
+  <si>
+    <t>G3</t>
   </si>
 </sst>
 </file>
@@ -380,28 +383,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -411,8 +423,19 @@
       <c r="C3">
         <v>53</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <f>SUM(B3,B6)</f>
+        <v>36</v>
+      </c>
+      <c r="H3">
+        <f>SUM(C3,C6)</f>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -422,8 +445,19 @@
       <c r="C4">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <f>SUM(B4,B7)</f>
+        <v>30</v>
+      </c>
+      <c r="H4">
+        <f>SUM(C4,C7)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -437,7 +471,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -455,28 +489,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -486,16 +529,38 @@
       <c r="C3">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <f>SUM(B3,B6,B9)</f>
+        <v>34</v>
+      </c>
+      <c r="I3">
+        <f>SUM(C3,C6,C9)</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <f>SUM(B4,B7,B10)</f>
+        <v>76</v>
+      </c>
+      <c r="I4">
+        <f>SUM(C4,C7,C10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -503,7 +568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -511,7 +576,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -525,7 +590,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -545,7 +610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
